--- a/tools/auto_recv/phrase/phrase.xlsx
+++ b/tools/auto_recv/phrase/phrase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\wechat-pc\wechat-script\tools\auto_recv\phrase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053C0D12-60C8-49A6-99E6-608271F29B1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117EAFCD-B32F-44D3-B21E-96A537927C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="1608" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>reply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +36,86 @@
   </si>
   <si>
     <t>当然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gif_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_mix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"url":"http://www.baidu.com","thumburl":"http://www.icon.com/icon.png","title":"百度","des":"中文搜索"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下你就知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[憨笑]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldh.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,8 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -365,28 +444,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="L2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="L4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7">
+        <v>5005</v>
       </c>
     </row>
   </sheetData>

--- a/tools/auto_recv/phrase/phrase.xlsx
+++ b/tools/auto_recv/phrase/phrase.xlsx
@@ -1,138 +1,401 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\wechat-pc\wechat-script\tools\auto_recv\phrase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117EAFCD-B32F-44D3-B21E-96A537927C27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0855728-447A-41B1-9968-E8D104552C70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="115">
   <si>
     <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>sys_exp</t>
+  </si>
+  <si>
+    <t>pic_path</t>
+  </si>
+  <si>
+    <t>gif_path</t>
+  </si>
+  <si>
+    <t>video_path</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>app_info</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>天气好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gif_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>{"url":"http://www.baidu.com","thumburl":"http://www.icon.com/icon.png","title":"百度","des":"中文搜索"}</t>
+  </si>
+  <si>
+    <t>百度一下你就知道</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>[憨笑]</t>
+  </si>
+  <si>
+    <t>刘德华</t>
+  </si>
+  <si>
+    <t>ldh.jpg</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>123.txt</t>
+  </si>
+  <si>
+    <t>你好啊，有什么可以帮到你的？</t>
+  </si>
+  <si>
+    <t>您好</t>
+  </si>
+  <si>
+    <t>你好哇，在的~</t>
+  </si>
+  <si>
+    <t>怎么抽奖？</t>
+  </si>
+  <si>
+    <t>提供一下您的购买店铺+下单手机号，我会给您发抽奖链接~</t>
+  </si>
+  <si>
+    <t>怎么抽奖</t>
+  </si>
+  <si>
+    <t>中奖</t>
+  </si>
+  <si>
+    <t>稍等我一下下哦，我一会帮你处理哈</t>
+  </si>
+  <si>
+    <t>京东倍思</t>
+  </si>
+  <si>
+    <t>[可爱]收到啦！\n[烟花]戳此链接参与抽奖：http://tuiguang.baseus.com/5czXU\n\n[勾引]你一定要扫描下方二维码进群↓\n不仅是倍粉VIP，优先享受倍思产品折扣秒杀、定期抽奖，还有数码产品避坑分享！</t>
+  </si>
+  <si>
+    <t>京东倍思旗舰店</t>
+  </si>
+  <si>
+    <t>京东倍思汽车</t>
+  </si>
+  <si>
+    <t>京东倍思汽车用品旗舰店</t>
+  </si>
+  <si>
+    <t>京东倍思汽车用品</t>
+  </si>
+  <si>
+    <t>倍思汽车用品</t>
+  </si>
+  <si>
+    <t>京东倍思照明</t>
+  </si>
+  <si>
+    <t>京东倍思照明旗舰店</t>
+  </si>
+  <si>
+    <t>京东照明</t>
+  </si>
+  <si>
+    <t>京东照明旗舰店</t>
+  </si>
+  <si>
+    <t>京东倍思家电旗舰店</t>
+  </si>
+  <si>
+    <t>京东倍思家电</t>
+  </si>
+  <si>
+    <t>倍思生活电器旗舰店</t>
+  </si>
+  <si>
+    <t>倍思生活电器旗舰店旗舰店</t>
+  </si>
+  <si>
+    <t>京东倍思影音娱乐旗舰店</t>
+  </si>
+  <si>
+    <t>京东倍思娱乐</t>
+  </si>
+  <si>
+    <t>京东倍思影音</t>
+  </si>
+  <si>
+    <t>京东倍思影娱</t>
+  </si>
+  <si>
+    <t>京东娱乐旗舰店</t>
+  </si>
+  <si>
+    <t>京东影音娱乐</t>
+  </si>
+  <si>
+    <t>京东影音旗舰店</t>
+  </si>
+  <si>
+    <t>京东娱乐</t>
+  </si>
+  <si>
+    <t>京东影音</t>
+  </si>
+  <si>
+    <t>天猫倍思正百川专卖店</t>
+  </si>
+  <si>
+    <t>淘宝+倍思旗舰店</t>
+  </si>
+  <si>
+    <t>倍思正百川</t>
+  </si>
+  <si>
+    <t>天猫倍思正百川</t>
+  </si>
+  <si>
+    <t>天猫正百川</t>
+  </si>
+  <si>
+    <t>天猫正百川专卖店</t>
+  </si>
+  <si>
+    <t>正百川</t>
+  </si>
+  <si>
+    <t>正白川</t>
+  </si>
+  <si>
+    <t>淘宝正白川</t>
+  </si>
+  <si>
+    <t>淘宝正百川</t>
+  </si>
+  <si>
+    <t>淘宝旗舰店</t>
+  </si>
+  <si>
+    <t>天猫倍思照明旗舰店</t>
+  </si>
+  <si>
+    <t>倍思照明</t>
+  </si>
+  <si>
+    <t>倍思照明旗舰店</t>
+  </si>
+  <si>
+    <t>天猫倍思照明</t>
+  </si>
+  <si>
+    <t>天猫照明</t>
+  </si>
+  <si>
+    <t>天猫照明旗舰店</t>
+  </si>
+  <si>
+    <t>天猫倍思家电旗舰店</t>
+  </si>
+  <si>
+    <t>倍思家电</t>
+  </si>
+  <si>
+    <t>倍思家电旗舰店</t>
+  </si>
+  <si>
+    <t>天猫倍思家电</t>
+  </si>
+  <si>
+    <t>天猫家电</t>
+  </si>
+  <si>
+    <t>天猫家电旗舰店</t>
+  </si>
+  <si>
+    <t>天猫倍思影音娱乐旗舰店</t>
+  </si>
+  <si>
+    <t>倍思影音娱乐</t>
+  </si>
+  <si>
+    <t>天猫倍思娱乐</t>
+  </si>
+  <si>
+    <t>天猫倍思影音</t>
+  </si>
+  <si>
+    <t>天猫倍思影音娱乐</t>
+  </si>
+  <si>
+    <t>天猫影音娱乐</t>
+  </si>
+  <si>
+    <t>天猫娱乐旗舰店</t>
+  </si>
+  <si>
+    <t>天猫娱乐</t>
+  </si>
+  <si>
+    <t>天猫影音</t>
+  </si>
+  <si>
+    <t>小米有品倍思粉丝36群</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>小米有品</t>
+  </si>
+  <si>
+    <t>有品</t>
+  </si>
+  <si>
+    <t>天猫倍思汽车用品旗舰店</t>
+  </si>
+  <si>
+    <t>天猫倍思汽车用品</t>
+  </si>
+  <si>
+    <t>天猫车品旗舰店</t>
+  </si>
+  <si>
+    <t>天猫倍思车品</t>
+  </si>
+  <si>
+    <t>天猫汽车用品</t>
+  </si>
+  <si>
+    <t>新平台唯品会拼多多</t>
+  </si>
+  <si>
+    <t>唯品会</t>
+  </si>
+  <si>
+    <t>拼多多</t>
+  </si>
+  <si>
+    <t>六路</t>
+  </si>
+  <si>
+    <t>启程</t>
+  </si>
+  <si>
+    <t>新平台有赞快手抖音等</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>微商城</t>
+  </si>
+  <si>
+    <t>快手</t>
+  </si>
+  <si>
+    <t>抖音</t>
+  </si>
+  <si>
+    <t>有赞</t>
+  </si>
+  <si>
+    <t>果粉</t>
+  </si>
+  <si>
+    <t>云集</t>
+  </si>
+  <si>
+    <t>网易苏宁</t>
+  </si>
+  <si>
+    <t>网易考拉</t>
+  </si>
+  <si>
+    <t>苏宁易购</t>
+  </si>
+  <si>
+    <t>网易</t>
+  </si>
+  <si>
+    <t>苏宁</t>
+  </si>
+  <si>
+    <t>京东+倍思旗舰店</t>
   </si>
   <si>
     <t>text_mix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>video_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"http://www.baidu.com","thumburl":"http://www.icon.com/icon.png","title":"百度","des":"中文搜索"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度一下你就知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[憨笑]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldh.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -159,11 +422,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -224,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -259,7 +526,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,23 +701,18 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="4" width="20.75" customWidth="1"/>
@@ -459,27 +721,27 @@
     <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -494,78 +756,2014 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L3">
         <v>5007</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I4" s="2"/>
+      <c r="L4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="L4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
       <c r="L5">
         <v>5002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="L6">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
       <c r="L7">
         <v>5005</v>
       </c>
     </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L70">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L84">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="L112">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="L113">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="L114">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="L115">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="L117">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="L118">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="L119">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="L120">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" t="s">
+        <v>19</v>
+      </c>
+      <c r="L121">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+      <c r="L122">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
+      </c>
+      <c r="L123">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="L124">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="L125">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="L126">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E127" t="s">
+        <v>19</v>
+      </c>
+      <c r="L127">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="L128">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="L129">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+      <c r="L130">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="L131">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="L132">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="L133">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="L134">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+      <c r="L135">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="L136">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="L137">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="L138">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E140" t="s">
+        <v>19</v>
+      </c>
+      <c r="L140">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="L141">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+      <c r="L142">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="L143">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="L144">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="L145">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="L146">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="L147">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="L148">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="L149">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="L150">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="L151">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="L152">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="L154">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="L155">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
+      </c>
+      <c r="L156">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="L157">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="L158">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="L159">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="L160">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E161" t="s">
+        <v>19</v>
+      </c>
+      <c r="L161">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="L163">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="L164">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
+      </c>
+      <c r="L165">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="L166">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E167" t="s">
+        <v>19</v>
+      </c>
+      <c r="L167">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="L168">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="L169">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E170" t="s">
+        <v>19</v>
+      </c>
+      <c r="L170">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E171" t="s">
+        <v>19</v>
+      </c>
+      <c r="L171">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+      <c r="L172">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="L173">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="L174">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E175" t="s">
+        <v>19</v>
+      </c>
+      <c r="L175">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E176" t="s">
+        <v>19</v>
+      </c>
+      <c r="L176">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E177" t="s">
+        <v>19</v>
+      </c>
+      <c r="L177">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="L178">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="L179">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="L180">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+      <c r="L181">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E182" t="s">
+        <v>19</v>
+      </c>
+      <c r="L182">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E183" t="s">
+        <v>19</v>
+      </c>
+      <c r="L183">
+        <v>5003</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/tools/auto_recv/phrase/phrase.xlsx
+++ b/tools/auto_recv/phrase/phrase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\wechat-pc\wechat-script\tools\auto_recv\phrase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7ECBFE-7945-4A10-BBD4-7569DCA1A566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A1E83-1B23-4727-AF03-64058ED809DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天气好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,63 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"url":"http://www.baidu.com","thumburl":"http://www.icon.com/icon.png","title":"百度","des":"中文搜索"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度一下你就知道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[憨笑]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldh.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>room_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他好帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倍思充电1群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M9" sqref="A2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -485,130 +425,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3">
-        <v>5007</v>
-      </c>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" s="1"/>
-      <c r="M4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8">
-        <v>5005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9">
-        <v>4003</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
